--- a/entrenamiento/resultados/Aproximacion1.xlsx
+++ b/entrenamiento/resultados/Aproximacion1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,23 @@
         <v>0.05435500409969537</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07742937074175903</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01332513006483827</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3662409739834921</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.04041869099512164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/entrenamiento/resultados/Aproximacion1.xlsx
+++ b/entrenamiento/resultados/Aproximacion1.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC080221-66DE-4117-96C0-0AA39F8AE1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="5760" yWindow="96" windowWidth="17280" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Mean EMC Val</t>
+  </si>
+  <si>
+    <t>Std EMC Val</t>
+  </si>
+  <si>
+    <t>Mean EUC Loss</t>
+  </si>
+  <si>
+    <t>Std EUC Loss</t>
+  </si>
+  <si>
+    <t>Conjuntos probados con el modelo 11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +75,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,231 +399,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean EMC Val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std EMC Val</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mean EUC Loss</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Std EUC Loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.053335265815258</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0130031206796225</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.295604703681809</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.039591577851242</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.0444810897178415</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.00999003681820987</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.3335265815258E-2</v>
+      </c>
+      <c r="C2">
+        <v>1.3003120679622501E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.29560470368180902</v>
+      </c>
+      <c r="E2">
+        <v>3.9591577851242003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.4481089717841503E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9900368182098704E-3</v>
+      </c>
+      <c r="D3">
         <v>0.266000809094735</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0345789422854244</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E3">
+        <v>3.4578942285424401E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.0488851160609296</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.00846942156047612</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.279815818156514</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0229626865168025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>4.8885116060929601E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.4694215604761199E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.27981581815651402</v>
+      </c>
+      <c r="E4">
+        <v>2.29626865168025E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.05365370397589037</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.01190140860585933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2955731366361891</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.03619139187288118</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>5.3653703975890372E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.190140860585933E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.29557313663618912</v>
+      </c>
+      <c r="E5">
+        <v>3.619139187288118E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.05221207080675024</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01059721806348154</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2917786498154912</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03101488236202983</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>5.2212070806750242E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.059721806348154E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.29177864981549118</v>
+      </c>
+      <c r="E6">
+        <v>3.101488236202983E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.03688334600467767</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.01595560468136316</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.238412484739508</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.05653928541374474</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>3.6883346004677672E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.5955604681363159E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.23841248473950799</v>
+      </c>
+      <c r="E7">
+        <v>5.6539285413744741E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.04736478517630271</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01264988846263541</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2762308490063463</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04640406057010316</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>4.7364785176302708E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.2649888462635411E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.27623084900634631</v>
+      </c>
+      <c r="E8">
+        <v>4.6404060570103163E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.04835395612088696</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01249355173857329</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2796635623489107</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.03974850046601054</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>4.8353956120886957E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.249355173857329E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.27966356234891071</v>
+      </c>
+      <c r="E9">
+        <v>3.9748500466010542E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.0495247324662549</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.009247171618547267</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2839536230478968</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.03098158028358051</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>4.9524732466254898E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.2471716185472674E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.28395362304789679</v>
+      </c>
+      <c r="E10">
+        <v>3.0981580283580511E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.0426828830103789</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01572869477309494</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.2565359235874244</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.05435500409969537</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>4.2682883010378897E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.572869477309494E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.25653592358742439</v>
+      </c>
+      <c r="E11">
+        <v>5.4355004099695368E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3.1825062299945528E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.4165253752896409E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.22076173446008129</v>
+      </c>
+      <c r="E12">
+        <v>5.0863608622278011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.3956706265785854E-2</v>
+      </c>
+      <c r="C13">
+        <v>2.9926565861052631E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.31889680879456661</v>
+      </c>
+      <c r="E13">
+        <v>7.1662355818148352E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.07742937074175903</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01332513006483827</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3662409739834921</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.04041869099512164</v>
+      <c r="B14">
+        <v>7.7429370741759027E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.3325130064838269E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.36624097398349209</v>
+      </c>
+      <c r="E14">
+        <v>4.0418690995121638E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4.0602917184254947E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.3970814508842151E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.25148702742797979</v>
+      </c>
+      <c r="E16">
+        <v>5.3234526091837701E-2</v>
       </c>
     </row>
   </sheetData>

--- a/entrenamiento/resultados/Aproximacion1.xlsx
+++ b/entrenamiento/resultados/Aproximacion1.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC080221-66DE-4117-96C0-0AA39F8AE1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="96" windowWidth="17280" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Mean EMC Val</t>
-  </si>
-  <si>
-    <t>Std EMC Val</t>
-  </si>
-  <si>
-    <t>Mean EUC Loss</t>
-  </si>
-  <si>
-    <t>Std EUC Loss</t>
-  </si>
-  <si>
-    <t>Conjuntos probados con el modelo 11</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,273 +420,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean EMC Val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Std EMC Val</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mean EUC Loss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Std EUC Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>0.053335265815258</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0130031206796225</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.295604703681809</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.039591577851242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="n">
+        <v>0.0444810897178415</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00999003681820987</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.266000809094735</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0345789422854244</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="n">
+        <v>0.0488851160609296</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00846942156047612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.279815818156514</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0229626865168025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5.3335265815258E-2</v>
-      </c>
-      <c r="C2">
-        <v>1.3003120679622501E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.29560470368180902</v>
-      </c>
-      <c r="E2">
-        <v>3.9591577851242003E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B5" t="n">
+        <v>0.05365370397589037</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01190140860585933</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2955731366361891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.03619139187288118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.05221207080675024</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01059721806348154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2917786498154912</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03101488236202983</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.03688334600467767</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01595560468136316</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.238412484739508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05653928541374474</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04736478517630271</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01264988846263541</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2762308490063463</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04640406057010316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04835395612088696</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01249355173857329</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2796635623489107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03974850046601054</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0495247324662549</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.009247171618547267</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2839536230478968</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03098158028358051</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0426828830103789</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01572869477309494</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2565359235874244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.05435500409969537</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.03182506229994553</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01416525375289641</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2207617344600813</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.05086360862227801</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06395670626578585</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02992656586105263</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3188968087945666</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07166235581814835</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.07742937074175903</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01332513006483827</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3662409739834921</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.04041869099512164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Conjuntos probados con el modelo 11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4.4481089717841503E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.9900368182098704E-3</v>
-      </c>
-      <c r="D3">
-        <v>0.266000809094735</v>
-      </c>
-      <c r="E3">
-        <v>3.4578942285424401E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B16" t="n">
+        <v>0.03724287978506514</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01671674578785762</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2416278901909079</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.05254026862509934</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4.8885116060929601E-2</v>
-      </c>
-      <c r="C4">
-        <v>8.4694215604761199E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.27981581815651402</v>
-      </c>
-      <c r="E4">
-        <v>2.29626865168025E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B17" t="n">
+        <v>0.04060291718425495</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01397081450884215</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2514870274279798</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0532345260918377</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5.3653703975890372E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.190140860585933E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.29557313663618912</v>
-      </c>
-      <c r="E5">
-        <v>3.619139187288118E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5.2212070806750242E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.059721806348154E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.29177864981549118</v>
-      </c>
-      <c r="E6">
-        <v>3.101488236202983E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3.6883346004677672E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.5955604681363159E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.23841248473950799</v>
-      </c>
-      <c r="E7">
-        <v>5.6539285413744741E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4.7364785176302708E-2</v>
-      </c>
-      <c r="C8">
-        <v>1.2649888462635411E-2</v>
-      </c>
-      <c r="D8">
-        <v>0.27623084900634631</v>
-      </c>
-      <c r="E8">
-        <v>4.6404060570103163E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4.8353956120886957E-2</v>
-      </c>
-      <c r="C9">
-        <v>1.249355173857329E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.27966356234891071</v>
-      </c>
-      <c r="E9">
-        <v>3.9748500466010542E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4.9524732466254898E-2</v>
-      </c>
-      <c r="C10">
-        <v>9.2471716185472674E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.28395362304789679</v>
-      </c>
-      <c r="E10">
-        <v>3.0981580283580511E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>4.2682883010378897E-2</v>
-      </c>
-      <c r="C11">
-        <v>1.572869477309494E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.25653592358742439</v>
-      </c>
-      <c r="E11">
-        <v>5.4355004099695368E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.1825062299945528E-2</v>
-      </c>
-      <c r="C12">
-        <v>1.4165253752896409E-2</v>
-      </c>
-      <c r="D12">
-        <v>0.22076173446008129</v>
-      </c>
-      <c r="E12">
-        <v>5.0863608622278011E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.3956706265785854E-2</v>
-      </c>
-      <c r="C13">
-        <v>2.9926565861052631E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.31889680879456661</v>
-      </c>
-      <c r="E13">
-        <v>7.1662355818148352E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>7.7429370741759027E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.3325130064838269E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.36624097398349209</v>
-      </c>
-      <c r="E14">
-        <v>4.0418690995121638E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>4.0602917184254947E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.3970814508842151E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.25148702742797979</v>
-      </c>
-      <c r="E16">
-        <v>5.3234526091837701E-2</v>
+      <c r="B18" t="n">
+        <v>0.03895412938270186</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0194287318095447</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.243300706573895</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06562905016276978</v>
       </c>
     </row>
   </sheetData>

--- a/entrenamiento/resultados/Aproximacion1.xlsx
+++ b/entrenamiento/resultados/Aproximacion1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/pablo_paramo_telle_udc_es/Documents/UDC4/TFG/ComunicELA-tfg/entrenamiento/resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2BB1D69C5B80DF00AF5B23115977B8F36465FDA1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{939E6231-2882-4F3B-8A5F-1C6CAF139D27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583E087-2028-414F-A188-1FC30F5FE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Mean EMC Val</t>
+  </si>
+  <si>
+    <t>Std EMC Val</t>
+  </si>
+  <si>
+    <t>Mean EUC Loss</t>
+  </si>
+  <si>
+    <t>Std EUC Loss</t>
+  </si>
+  <si>
+    <t>Primeras observaciones</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>Ya que dieron resultados similares, se realizan las graficas de precisiones para ver si la sigmoide es la culpable de llevar los resultados al centro de la pantalla</t>
+  </si>
+  <si>
+    <t>Se descarta esta opcion porque las gráficas resultantes son similares y tienen la misma problemática</t>
+  </si>
+  <si>
+    <t>Tercera observacion sin sigmoide ya que se vio que lleva el objetivo al centro y esto podia reducir la precisión</t>
+  </si>
+  <si>
+    <t>Se escoge el modelo 9 con la sigmoide por tener mejores resultados para la de fusión</t>
+  </si>
+  <si>
+    <t>Segundas observaciones con el 9 por ser el mejor con los datos transformados</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -42,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +135,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,14 +463,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2.0503126084804531E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.3085258167586058E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.17783504192318239</v>
+      </c>
+      <c r="E3">
+        <v>3.6863775652591441E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.9897566922008988E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.4453719963676049E-3</v>
+      </c>
+      <c r="D4">
+        <v>0.1748960626976831</v>
+      </c>
+      <c r="E4">
+        <v>3.8223706475104029E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.869786928208279E-2</v>
+      </c>
+      <c r="C5">
+        <v>8.1449344514923482E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.16851789451071189</v>
+      </c>
+      <c r="E5">
+        <v>3.8050531679603858E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2.0137639809399841E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.714058709805155E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.17323139778205329</v>
+      </c>
+      <c r="E6">
+        <v>3.4264073455487022E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2.7064216575984439E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.1137036413294429E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.20158318515334811</v>
+      </c>
+      <c r="E7">
+        <v>4.5816432387074481E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1.6571279126219449E-2</v>
+      </c>
+      <c r="C8">
+        <v>7.9934027949463918E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.1575507045856544</v>
+      </c>
+      <c r="E8">
+        <v>4.1097938182467431E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1.6892366237672311E-2</v>
+      </c>
+      <c r="C9">
+        <v>8.1717042659146741E-3</v>
+      </c>
+      <c r="D9">
+        <v>0.1589075627071517</v>
+      </c>
+      <c r="E9">
+        <v>4.1273450440952562E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.6479621052608959E-2</v>
+      </c>
+      <c r="C10">
+        <v>8.2642816274501943E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.156414130117212</v>
+      </c>
+      <c r="E10">
+        <v>4.0202726255387448E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.631193415793989E-2</v>
+      </c>
+      <c r="C11">
+        <v>7.2693549314782786E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.15691132715770181</v>
+      </c>
+      <c r="E11">
+        <v>3.6545012178000637E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1.7785279259883931E-2</v>
+      </c>
+      <c r="C12">
+        <v>9.1891219310871568E-3</v>
+      </c>
+      <c r="D12">
+        <v>0.16374498541866031</v>
+      </c>
+      <c r="E12">
+        <v>4.3025506106193073E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1.848489055410028E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.4966390184464634E-3</v>
+      </c>
+      <c r="D15">
+        <v>0.16948757927332611</v>
+      </c>
+      <c r="E15">
+        <v>3.2330354349791132E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1.73350499443976E-2</v>
+      </c>
+      <c r="C16">
+        <v>8.0260181891806011E-3</v>
+      </c>
+      <c r="D16">
+        <v>0.16131076972399441</v>
+      </c>
+      <c r="E16">
+        <v>3.7795362004923047E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>2.062206539059324E-2</v>
+      </c>
+      <c r="C17">
+        <v>7.7016779662840811E-3</v>
+      </c>
+      <c r="D17">
+        <v>0.1756994375160762</v>
+      </c>
+      <c r="E17">
+        <v>3.155273962821064E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45301</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.8205272000000002E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.6849179999999998E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.16617932899999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.1552498999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/entrenamiento/resultados/Aproximacion1.xlsx
+++ b/entrenamiento/resultados/Aproximacion1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive - Universidade da Coruña\UDC4\TFG\ComunicELA-tfg\entrenamiento\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583E087-2028-414F-A188-1FC30F5FE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D3F876-A393-4E46-BEA7-B2D952536728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30030" yWindow="1185" windowWidth="21600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Modelo</t>
   </si>
@@ -79,19 +79,10 @@
     <t>9-4</t>
   </si>
   <si>
-    <t>Ya que dieron resultados similares, se realizan las graficas de precisiones para ver si la sigmoide es la culpable de llevar los resultados al centro de la pantalla</t>
-  </si>
-  <si>
-    <t>Se descarta esta opcion porque las gráficas resultantes son similares y tienen la misma problemática</t>
-  </si>
-  <si>
-    <t>Tercera observacion sin sigmoide ya que se vio que lleva el objetivo al centro y esto podia reducir la precisión</t>
-  </si>
-  <si>
-    <t>Se escoge el modelo 9 con la sigmoide por tener mejores resultados para la de fusión</t>
-  </si>
-  <si>
     <t>Segundas observaciones con el 9 por ser el mejor con los datos transformados</t>
+  </si>
+  <si>
+    <t>Aproximación inicial</t>
   </si>
 </sst>
 </file>
@@ -463,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,259 +481,274 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.1236999999999999E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0132E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.17676800000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.7462999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.3406E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0505E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.184501</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.7065000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.0754000000000002E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1287E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.17194499999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.4621000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.0916000000000001E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.1712E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.17225099999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.5879000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2.0503126084804531E-2</v>
-      </c>
-      <c r="C3">
-        <v>8.3085258167586058E-3</v>
-      </c>
-      <c r="D3">
-        <v>0.17783504192318239</v>
-      </c>
-      <c r="E3">
-        <v>3.6863775652591441E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1.9897566922008988E-2</v>
-      </c>
-      <c r="C4">
-        <v>8.4453719963676049E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.1748960626976831</v>
-      </c>
-      <c r="E4">
-        <v>3.8223706475104029E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1.869786928208279E-2</v>
-      </c>
-      <c r="C5">
-        <v>8.1449344514923482E-3</v>
-      </c>
-      <c r="D5">
-        <v>0.16851789451071189</v>
-      </c>
-      <c r="E5">
-        <v>3.8050531679603858E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2.0137639809399841E-2</v>
-      </c>
-      <c r="C6">
-        <v>7.714058709805155E-3</v>
-      </c>
-      <c r="D6">
-        <v>0.17323139778205329</v>
-      </c>
-      <c r="E6">
-        <v>3.4264073455487022E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>2.7064216575984439E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.1137036413294429E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.20158318515334811</v>
-      </c>
-      <c r="E7">
-        <v>4.5816432387074481E-2</v>
+      <c r="B7" s="2">
+        <v>2.4812000000000001E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.2513E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.18707299999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0906E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1.6571279126219449E-2</v>
-      </c>
-      <c r="C8">
-        <v>7.9934027949463918E-3</v>
-      </c>
-      <c r="D8">
-        <v>0.1575507045856544</v>
-      </c>
-      <c r="E8">
-        <v>4.1097938182467431E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1.6892366237672311E-2</v>
-      </c>
-      <c r="C9">
-        <v>8.1717042659146741E-3</v>
-      </c>
-      <c r="D9">
-        <v>0.1589075627071517</v>
-      </c>
-      <c r="E9">
-        <v>4.1273450440952562E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1.6479621052608959E-2</v>
-      </c>
-      <c r="C10">
-        <v>8.2642816274501943E-3</v>
-      </c>
-      <c r="D10">
-        <v>0.156414130117212</v>
-      </c>
-      <c r="E10">
-        <v>4.0202726255387448E-2</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1.631193415793989E-2</v>
-      </c>
-      <c r="C11">
-        <v>7.2693549314782786E-3</v>
-      </c>
-      <c r="D11">
-        <v>0.15691132715770181</v>
-      </c>
-      <c r="E11">
-        <v>3.6545012178000637E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>1.7785279259883931E-2</v>
+        <v>2.0503126084804531E-2</v>
       </c>
       <c r="C12">
-        <v>9.1891219310871568E-3</v>
+        <v>8.3085258167586093E-3</v>
       </c>
       <c r="D12">
-        <v>0.16374498541866031</v>
+        <v>0.17783504192318239</v>
       </c>
       <c r="E12">
-        <v>4.3025506106193073E-2</v>
+        <v>3.6863775652591441E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1.9897566922008988E-2</v>
+      </c>
+      <c r="C13">
+        <v>8.4453719963676049E-3</v>
+      </c>
+      <c r="D13">
+        <v>0.1748960626976831</v>
+      </c>
+      <c r="E13">
+        <v>3.8223706475104029E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1.869786928208279E-2</v>
+      </c>
+      <c r="C14">
+        <v>8.1449344514923482E-3</v>
+      </c>
+      <c r="D14">
+        <v>0.16851789451071189</v>
+      </c>
+      <c r="E14">
+        <v>3.8050531679603858E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>1.848489055410028E-2</v>
+        <v>2.0137639809399841E-2</v>
       </c>
       <c r="C15">
-        <v>7.4966390184464634E-3</v>
+        <v>7.714058709805155E-3</v>
       </c>
       <c r="D15">
-        <v>0.16948757927332611</v>
+        <v>0.17323139778205329</v>
       </c>
       <c r="E15">
-        <v>3.2330354349791132E-2</v>
+        <v>3.4264073455487022E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>1.73350499443976E-2</v>
+        <v>2.7064216575984439E-2</v>
       </c>
       <c r="C16">
-        <v>8.0260181891806011E-3</v>
+        <v>1.1137036413294429E-2</v>
       </c>
       <c r="D16">
-        <v>0.16131076972399441</v>
+        <v>0.20158318515334811</v>
       </c>
       <c r="E16">
-        <v>3.7795362004923047E-2</v>
+        <v>4.5816432387074481E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>2.062206539059324E-2</v>
+        <v>1.6571279126219449E-2</v>
       </c>
       <c r="C17">
-        <v>7.7016779662840811E-3</v>
+        <v>7.9934027949463918E-3</v>
       </c>
       <c r="D17">
-        <v>0.1756994375160762</v>
+        <v>0.1575507045856544</v>
       </c>
       <c r="E17">
-        <v>3.155273962821064E-2</v>
+        <v>4.1097938182467403E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>1.6892366237672311E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.1717042659146741E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.1589075627071517</v>
+      </c>
+      <c r="E18">
+        <v>4.1273450440952562E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>1.6479621052609E-2</v>
+      </c>
+      <c r="C19">
+        <v>8.2642816274501908E-3</v>
+      </c>
+      <c r="D19">
+        <v>0.156414130117212</v>
+      </c>
+      <c r="E19">
+        <v>4.02027262553874E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>1.6311934157939901E-2</v>
+      </c>
+      <c r="C20">
+        <v>7.2693549314782804E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.15691132715770201</v>
+      </c>
+      <c r="E20">
+        <v>3.6545012178000602E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>45301</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.8205272000000002E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6.6849179999999998E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.16617932899999999</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3.1552498999999998E-2</v>
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>1.7785279259883931E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.1891219310871568E-3</v>
+      </c>
+      <c r="D21">
+        <v>0.16374498541866031</v>
+      </c>
+      <c r="E21">
+        <v>4.3025506106193073E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -752,15 +758,71 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1.848489055410028E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.4966390184464634E-3</v>
+      </c>
+      <c r="D24">
+        <v>0.16948757927332611</v>
+      </c>
+      <c r="E24">
+        <v>3.2330354349791132E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1.73350499443976E-2</v>
+      </c>
+      <c r="C25">
+        <v>8.0260181891806011E-3</v>
+      </c>
+      <c r="D25">
+        <v>0.16131076972399441</v>
+      </c>
+      <c r="E25">
+        <v>3.7795362004923047E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>2.062206539059324E-2</v>
+      </c>
+      <c r="C26">
+        <v>7.7016779662840811E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.1756994375160762</v>
+      </c>
+      <c r="E26">
+        <v>3.155273962821064E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>